--- a/pytania.xlsx
+++ b/pytania.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\straz\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.operacyjny\Desktop\STRONA\Nowy folder (2)\straz\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF0CD53-A012-4D08-B4B0-6FB2E599BFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F856AA-FBD7-4D7B-A552-91E7303D79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="160">
   <si>
     <t>Pytanie</t>
   </si>
@@ -39,93 +39,501 @@
     <t>Odpowiedź 3</t>
   </si>
   <si>
-    <t>Odpowiedź 4</t>
-  </si>
-  <si>
     <t>Poprawna odpowiedź</t>
   </si>
   <si>
-    <t>Gaszenie pożarów</t>
-  </si>
-  <si>
-    <t>Praca biurowa</t>
-  </si>
-  <si>
-    <t>Pomoc w gotowaniu</t>
-  </si>
-  <si>
-    <t>Bolesław Chomicz</t>
-  </si>
-  <si>
-    <t>Józef Piłsudski</t>
-  </si>
-  <si>
-    <t>gen. Władysław Sikorski</t>
-  </si>
-  <si>
-    <t>Adolf Hitler</t>
-  </si>
-  <si>
-    <t>Kotrole trzeźwości</t>
-  </si>
-  <si>
-    <t>Co 2 lata</t>
-  </si>
-  <si>
-    <t>Co 5 lat</t>
-  </si>
-  <si>
-    <t>Wcale</t>
-  </si>
-  <si>
-    <t>Co rok</t>
-  </si>
-  <si>
-    <t>Pytanie: Jakie są główne zadania straży?</t>
-  </si>
-  <si>
-    <t>Pytanie: Co ile lat odbywają się zebrania sprawozdawcze w OSP?</t>
-  </si>
-  <si>
-    <t>Pytanie: Jak nazywał się twórca zorganizowanego ruchu strażackiego w Polsce?</t>
-  </si>
-  <si>
-    <t>Pytanie: W którym roku nastąpiło utworzenie Związku Ochotniczych Straży Pożarnych?</t>
-  </si>
-  <si>
-    <t>Pytanie: Kiedy obchodzone są Dni Ochrony Przeciwpożarowej?</t>
-  </si>
-  <si>
-    <t>W kwietniu</t>
-  </si>
-  <si>
-    <t>W lipcu</t>
-  </si>
-  <si>
-    <t>W maju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W grudniu </t>
+    <t>Pytanie: Pojemność zbiornika na środek pianotwórczy w
+samochodzie GBA 2,5/16 TYP 005 wynosi:</t>
+  </si>
+  <si>
+    <t>160 l</t>
+  </si>
+  <si>
+    <t>250 l</t>
+  </si>
+  <si>
+    <t>500 l</t>
+  </si>
+  <si>
+    <t>Pytanie: Najwyższą władzą w OSP jest:</t>
+  </si>
+  <si>
+    <t>prezes</t>
+  </si>
+  <si>
+    <t>zarząd</t>
+  </si>
+  <si>
+    <t>walne zebranie</t>
+  </si>
+  <si>
+    <t>Pytanie: Gdzie w Polsce znajdują się relikwie św. Floriana?</t>
+  </si>
+  <si>
+    <t>w Gnieźnie</t>
+  </si>
+  <si>
+    <t>w Krakowie</t>
+  </si>
+  <si>
+    <t>w Częstochowie</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaki gaz o właściwościach wybuchowych wydziela się
+podczas ładowania akumulatorów kwasowych?</t>
+  </si>
+  <si>
+    <t>metan</t>
+  </si>
+  <si>
+    <t>etan</t>
+  </si>
+  <si>
+    <t>wodór</t>
+  </si>
+  <si>
+    <t>Pytanie: Oświetlenie awaryjne obejmuje:</t>
+  </si>
+  <si>
+    <t>oświetlenie bezpieczeństwa i ewakuacyjne</t>
+  </si>
+  <si>
+    <t>oświetlenie bezpieczeństwa, ewakuacyjne, kierunkowe i przeszkodowe</t>
+  </si>
+  <si>
+    <t>taki termin nie istnieje</t>
+  </si>
+  <si>
+    <t>Pytanie: Komendanta Głównego PSP powołuje i odwołuje:</t>
+  </si>
+  <si>
+    <t>Minister Spraw Wewnętrznych i Administracji</t>
+  </si>
+  <si>
+    <t>Prezydent RP na wniosek Prezesa Rady Ministrów</t>
+  </si>
+  <si>
+    <t>Prezes Rady Ministrów na wniosek Ministra Spraw Wewnętrznych i Administracji</t>
+  </si>
+  <si>
+    <t>Pytanie: Gdzie sprawdzamy tętno u dorosłych poszkodowanych?</t>
+  </si>
+  <si>
+    <t>na przegubie ręki</t>
+  </si>
+  <si>
+    <t>na tętnicach szyjnych</t>
+  </si>
+  <si>
+    <t>w pachwinach</t>
+  </si>
+  <si>
+    <t>Pytanie: Projekt budowlany wymaga uzgodnienia z:</t>
+  </si>
+  <si>
+    <t>rzeczoznawcą ds. zabezpieczeń przeciwpożarowych</t>
+  </si>
+  <si>
+    <t>Komendą Miejską /Powiatową PSP</t>
+  </si>
+  <si>
+    <t>Komendą Wojewódzką PSP</t>
+  </si>
+  <si>
+    <t>Pytanie: Klasa odporności pożarowej dotyczy:</t>
+  </si>
+  <si>
+    <t>elementów budynku</t>
+  </si>
+  <si>
+    <t>budynku</t>
+  </si>
+  <si>
+    <t>oddzieleń przeciwpożarowych budynku</t>
+  </si>
+  <si>
+    <t>Pytanie: Decyzję pokontrolną nakazującą usunięcie nieprawidłowości
+wydaje:</t>
+  </si>
+  <si>
+    <t>Komendant Miejski/Powiatowy PSP</t>
+  </si>
+  <si>
+    <t>oficer prewencji Komendy Miejskiej/Powiatowej PSP</t>
+  </si>
+  <si>
+    <t>Komendant Wojewódzki PSP</t>
+  </si>
+  <si>
+    <t>Pytanie: Odległość hydrantu zewnętrznego od ścian budynku
+powinna wynosić:</t>
+  </si>
+  <si>
+    <t>2-10 m</t>
+  </si>
+  <si>
+    <t>najmniej 5 m</t>
+  </si>
+  <si>
+    <t>do 5 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Produkowane obecnie gaśnice śniegowe posiadają zawór:</t>
+  </si>
+  <si>
+    <t>zbijakowy</t>
+  </si>
+  <si>
+    <t>pokrętny</t>
+  </si>
+  <si>
+    <t>szybkootwieralny</t>
+  </si>
+  <si>
+    <t>Pytanie: W jakiej minimalnej odległości od lasu można rozpalić
+ognisko?</t>
+  </si>
+  <si>
+    <t>70m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>w odległości 100 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Czy samochód GBAM – 2/8 + 8 posiada motopompę?</t>
+  </si>
+  <si>
+    <t>może posiadać</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>tak</t>
+  </si>
+  <si>
+    <t>Pytanie: Minimalna odległość między butlą z gazem propan - butan a
+urządzeniem grzewczym powinna wynosić:</t>
+  </si>
+  <si>
+    <t>2 m</t>
+  </si>
+  <si>
+    <t>1,5 m</t>
+  </si>
+  <si>
+    <t>0,5 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Gaz propan-butan jest:</t>
+  </si>
+  <si>
+    <t>cięższy od powietrza</t>
+  </si>
+  <si>
+    <t>lżejszy od powietrza</t>
+  </si>
+  <si>
+    <t>ciężar właściwy gazu propan - butan jest równy ciężarowi właściwemu powietrza</t>
+  </si>
+  <si>
+    <t>Pytanie: Co oznacza skrót KCKR?</t>
+  </si>
+  <si>
+    <t>Krajowe Centrum Koordynacji Ratownictwa</t>
+  </si>
+  <si>
+    <t>Krajowe Centrum Komend Ratowniczych</t>
+  </si>
+  <si>
+    <t>Komisja Centralna Koordynacji Ratownictwa</t>
+  </si>
+  <si>
+    <t>Pytanie: Samochód gaśniczy GBA 2,5/16 typ 005 posiada:</t>
+  </si>
+  <si>
+    <t>urządzenie szybkiego natarcia W - 52</t>
+  </si>
+  <si>
+    <t>urządzenie szybkiego natarcia W - 25</t>
+  </si>
+  <si>
+    <t>nie posiada urządzenia szybkiego natarcia</t>
+  </si>
+  <si>
+    <t>Pytanie: Wydobywający się CO 2 z gaśnicy śniegowej osiąga
+temperaturę:</t>
+  </si>
+  <si>
+    <t>2 0C</t>
+  </si>
+  <si>
+    <t>- 10 0C</t>
+  </si>
+  <si>
+    <t>- 79 0C</t>
+  </si>
+  <si>
+    <t>10 m</t>
+  </si>
+  <si>
+    <t>20 m</t>
+  </si>
+  <si>
+    <t>5 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Front działania prądu gaśniczego w obronie wynosi:</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaka jest praktyczna wysokość ssania motopomp
+strażackich?</t>
+  </si>
+  <si>
+    <t>7,5 m</t>
+  </si>
+  <si>
+    <t>7 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,5 m </t>
+  </si>
+  <si>
+    <t>Pytanie: Drabina dwuprzęsłowa wysuwana może być sprawiona jako:</t>
+  </si>
+  <si>
+    <t>przyparta</t>
+  </si>
+  <si>
+    <t>odchylona</t>
+  </si>
+  <si>
+    <t>wolnostojąca</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaka jest normatywna szerokość poziomych dróg
+ewakuacyjnych w nowo projektowanych budynkach? – I ustny</t>
+  </si>
+  <si>
+    <t>1,4 m</t>
+  </si>
+  <si>
+    <t>1,8 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Związek Ochotniczych Straży Pożarnych został powołany w
+roku:</t>
+  </si>
+  <si>
+    <t>w 1948</t>
+  </si>
+  <si>
+    <t>w 1958</t>
+  </si>
+  <si>
+    <t>w 1956</t>
+  </si>
+  <si>
+    <t>Pytanie: Co stanie się z płomieniem świecy, jeżeli w pomieszczeniu
+zwiększymy stężenie tlenu?</t>
+  </si>
+  <si>
+    <t>płomień wydłuży się</t>
+  </si>
+  <si>
+    <t>płomień skróci się i rozszerzy</t>
+  </si>
+  <si>
+    <t>płomień zgaśnie</t>
+  </si>
+  <si>
+    <t>Pytanie: Muzea, jako budynki można zaliczyć do kategorii zagrożenia ludzi:</t>
+  </si>
+  <si>
+    <t>ZL I</t>
+  </si>
+  <si>
+    <t>ZL IV</t>
+  </si>
+  <si>
+    <t>ZL V</t>
+  </si>
+  <si>
+    <t>Pytanie: Co oznacza symbol GBAM?</t>
+  </si>
+  <si>
+    <t>samochód specjalny gaśniczy z autopompą</t>
+  </si>
+  <si>
+    <t>samochód specjalny gaśniczy ze zbiornikiem autopompą i motopompą</t>
+  </si>
+  <si>
+    <t>samochód gaśniczy ze zbiornikiem z autopompą i motopompą</t>
+  </si>
+  <si>
+    <t>Pytanie: W którym roku powołano Związek Ochotniczych Straży
+Pożarnych RP? – III ustny</t>
+  </si>
+  <si>
+    <t>w 1975</t>
+  </si>
+  <si>
+    <t>w 1995</t>
+  </si>
+  <si>
+    <t>w 1992</t>
+  </si>
+  <si>
+    <t>Pytanie: Wokół placów składowych należy zachować pas ochronny o
+szerokości minimum:</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>Pytanie: Z przewodów dymowych i spalinowych w budynkach
+opalanych paliwem stałym należy usuwać zanieczyszczenia:</t>
+  </si>
+  <si>
+    <t>co najmniej 2 razy w roku</t>
+  </si>
+  <si>
+    <t>co najmniej 4 razy w roku</t>
+  </si>
+  <si>
+    <t>co najmniej raz do roku</t>
+  </si>
+  <si>
+    <t>Pytanie: Budynki niskie to:</t>
+  </si>
+  <si>
+    <t>budynki mieszkalne o wysokości do 4 kondygnacji włącznie</t>
+  </si>
+  <si>
+    <t>budynki mieszkalne o wysokości do 9 kondygnacji włącznie</t>
+  </si>
+  <si>
+    <t>budynki mieszkalne o wysokości do 2 kondygnacji włącznie</t>
+  </si>
+  <si>
+    <t>Pytanie: Jaki jest najwyższy stopień zagrożenia pożarowego lasu?</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Pytanie: Obecny Komendant Główny PSP jest w stopniu:</t>
+  </si>
+  <si>
+    <t>nadbrygadiera</t>
+  </si>
+  <si>
+    <t>generała brygadiera</t>
+  </si>
+  <si>
+    <t>starszego brygadiera</t>
+  </si>
+  <si>
+    <t>Pytanie: Co to jest wstrząs pourazowy?</t>
+  </si>
+  <si>
+    <t>reakcja organizmu na uraz</t>
+  </si>
+  <si>
+    <t>uderzenie po upadku</t>
+  </si>
+  <si>
+    <t>utrata przytomności</t>
+  </si>
+  <si>
+    <t>Pytanie: Jednostką organizacyjną najniższego szczebla w PSP jest:</t>
+  </si>
+  <si>
+    <t>oddział ratowniczy</t>
+  </si>
+  <si>
+    <t>zawodowa straż pożarna</t>
+  </si>
+  <si>
+    <t>jednostka ratowniczo-gaśnicza</t>
+  </si>
+  <si>
+    <t>Pytanie: Minimum ile osób potrzeba do utworzenia OSP?</t>
+  </si>
+  <si>
+    <t>Pytanie: Elew to słuchacz szkoły:</t>
+  </si>
+  <si>
+    <t>podoficerskiej</t>
+  </si>
+  <si>
+    <t>aspirantów</t>
+  </si>
+  <si>
+    <t>oficerskiej</t>
+  </si>
+  <si>
+    <t>Pytanie: Ile osób liczy korpus oficerów w Straży Pożarnej?</t>
+  </si>
+  <si>
+    <t>wiadro</t>
+  </si>
+  <si>
+    <t>toporek</t>
+  </si>
+  <si>
+    <t>bosak</t>
+  </si>
+  <si>
+    <t>Pytanie: Do sprzętu gaśniczego powinien być zapewniony dostęp co
+najmniej:</t>
+  </si>
+  <si>
+    <t>1 m</t>
+  </si>
+  <si>
+    <t>1,6 m</t>
+  </si>
+  <si>
+    <t>Pytanie: Szkoła kształcąca kadry oficerskie Państwowej Straży Pożarnej znajduje
+się w Warszawie i nosi nazwę:</t>
+  </si>
+  <si>
+    <t>Centralna Szkoła Pożarnicza</t>
+  </si>
+  <si>
+    <t>Wyższa Oficerska Szkoła Pożarnicza</t>
+  </si>
+  <si>
+    <t>Szkoła Główna Służby Pożarniczej</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,8 +558,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,18 +841,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.85546875" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.5703125" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
@@ -462,111 +870,688 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>1921</v>
-      </c>
-      <c r="C3">
-        <v>1935</v>
-      </c>
-      <c r="D3">
-        <v>1956</v>
-      </c>
-      <c r="E3">
-        <v>1988</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="F6">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
